--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>9.117000000000001</v>
+        <v>8.325800000000003</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9953</v>
+        <v>-22.02100000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8146</v>
+        <v>-21.77959999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.67249999999999</v>
+        <v>-21.64679999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.488499999999999</v>
+        <v>6.342399999999994</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.25129999999998</v>
+        <v>-19.93579999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.01879999999997</v>
+        <v>-20.96139999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,7 +839,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.3777</v>
+        <v>6.399100000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.37009999999998</v>
+        <v>-21.49299999999998</v>
       </c>
       <c r="B25" t="n">
-        <v>6.652599999999996</v>
+        <v>5.9645</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.03249999999996</v>
+        <v>-20.97849999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.967700000000002</v>
+        <v>5.805100000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.95239999999998</v>
+        <v>-21.06559999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.691700000000001</v>
+        <v>6.094899999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.767499999999999</v>
+        <v>5.650400000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.661300000000002</v>
+        <v>9.388500000000004</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.6375</v>
+        <v>-19.42389999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.21609999999999</v>
+        <v>10.31199999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.538900000000004</v>
+        <v>5.389800000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.868199999999998</v>
+        <v>5.7369</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.421099999999999</v>
+        <v>5.575</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9019</v>
+        <v>-21.8599</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.188499999999998</v>
+        <v>6.449199999999993</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.4225</v>
+        <v>5.134499999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.24020000000001</v>
+        <v>-22.32530000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.147599999999996</v>
+        <v>5.112799999999993</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.28340000000001</v>
+        <v>-22.441</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.090399999999997</v>
+        <v>5.3826</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.83629999999998</v>
+        <v>-21.84899999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62769999999999</v>
+        <v>-21.6401</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.745000000000003</v>
+        <v>9.0976</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.826999999999993</v>
+        <v>9.780499999999993</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.26000000000001</v>
+        <v>-20.67500000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.864</v>
+        <v>-21.76089999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.647899999999996</v>
+        <v>4.589599999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.4895</v>
+        <v>5.621500000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.49730000000002</v>
+        <v>-21.44390000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.869899999999999</v>
+        <v>4.608299999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.09189999999998</v>
+        <v>-21.27899999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.774</v>
+        <v>-21.78179999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
